--- a/docs/_static/benchmarks_files/OV-2022.3-Performance-Data.xlsx
+++ b/docs/_static/benchmarks_files/OV-2022.3-Performance-Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{627E673C-E615-4C4B-9DF8-15C5D95A7336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04A04AC-BE40-4734-B873-938DBD6BDD54}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BC82EA-1E8A-4F25-9B5C-5062A0C18B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33030" yWindow="690" windowWidth="28800" windowHeight="15570" tabRatio="881" activeTab="2" xr2:uid="{B749C7B1-8D5C-4F8B-BC14-943DC6A423EB}"/>
+    <workbookView xWindow="-34410" yWindow="975" windowWidth="28800" windowHeight="15570" tabRatio="881" activeTab="2" xr2:uid="{B749C7B1-8D5C-4F8B-BC14-943DC6A423EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="20" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="62">
   <si>
     <t>Results may vary. For workloads and configurations visit:</t>
   </si>
@@ -217,6 +217,18 @@
   <si>
     <t>mobilenet-ssd</t>
   </si>
+  <si>
+    <t>Intel® Flex-170</t>
+  </si>
+  <si>
+    <t>resnet-18-pytorch</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5201,7 +5216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$F$2</c:f>
+              <c:f>'Performance Tables GPU'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5253,7 +5268,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -5329,7 +5344,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$G$2</c:f>
+              <c:f>'Performance Tables GPU'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5381,7 +5396,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -5466,7 +5481,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$F$30</c:f>
+              <c:f>'Performance Tables GPU'!$H$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5518,7 +5533,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -5603,7 +5618,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$G$30</c:f>
+              <c:f>'Performance Tables GPU'!$I$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5655,7 +5670,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -5740,7 +5755,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$F$58</c:f>
+              <c:f>'Performance Tables GPU'!$H$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5792,7 +5807,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -5877,7 +5892,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$G$58</c:f>
+              <c:f>'Performance Tables GPU'!$I$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5929,7 +5944,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -6014,7 +6029,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$F$86</c:f>
+              <c:f>'Performance Tables GPU'!$H$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6068,7 +6083,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -6153,7 +6168,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$G$86</c:f>
+              <c:f>'Performance Tables GPU'!$I$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6207,7 +6222,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -6292,7 +6307,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$F$114</c:f>
+              <c:f>'Performance Tables GPU'!$H$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6346,7 +6361,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -6382,7 +6397,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$G$114</c:f>
+              <c:f>'Performance Tables GPU'!$I$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6436,7 +6451,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -6464,6 +6479,284 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-EBF5-45A1-AB3F-099743298E42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$H$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel® Flex-170 INT8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>bert-base-cased</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bert-large-uncased-whole-word-masking-squad-0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deeplabv3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>densenet-121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>efficientdet-d0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>faster_rcnn_resnet50_coco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>inception-v4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mobilenet-ssd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mobilenet-v2-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>resnet-18-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>resnet-50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ssd-resnet34-1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>unet-camvid-onnx-0001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>yolo_v3_tiny</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>yolo_v4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Tables GPU'!$B$132:$B$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>906.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882.03499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3440.1759999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>463.66500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216.29499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2986.9140000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3548.9769999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18371.954000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27454.077000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10810.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132.43600000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>218.12100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3634.1640000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>454.49200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-440F-4715-8864-0FDA08D026CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$I$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel® Flex-170 FP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>bert-base-cased</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bert-large-uncased-whole-word-masking-squad-0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deeplabv3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>densenet-121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>efficientdet-d0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>faster_rcnn_resnet50_coco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>inception-v4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mobilenet-ssd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mobilenet-v2-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>resnet-18-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>resnet-50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ssd-resnet34-1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>unet-camvid-onnx-0001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>yolo_v3_tiny</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>yolo_v4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Tables GPU'!$C$132:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>348.517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1178.6780000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298.60300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1412.675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4738.326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2264.674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1005.163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1209.671</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.783000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-440F-4715-8864-0FDA08D026CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6805,7 +7098,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -6942,7 +7235,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -7079,7 +7372,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -7216,7 +7509,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -7353,7 +7646,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -7490,7 +7783,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -7629,7 +7922,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -7768,7 +8061,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -10816,7 +11109,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$E$2</c:f>
+              <c:f>'Performance Tables GPU'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10868,7 +11161,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -10950,7 +11243,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$E$30</c:f>
+              <c:f>'Performance Tables GPU'!$G$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11002,7 +11295,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -11087,7 +11380,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$E$58</c:f>
+              <c:f>'Performance Tables GPU'!$G$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11139,7 +11432,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -11224,7 +11517,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$E$86</c:f>
+              <c:f>'Performance Tables GPU'!$G$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11276,7 +11569,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -11361,7 +11654,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Performance Tables GPU'!$E$114</c:f>
+              <c:f>'Performance Tables GPU'!$G$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11413,7 +11706,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -11441,6 +11734,143 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-02CC-4462-9288-443C7DDFB510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$G$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel® Flex-170</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>bert-base-cased</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bert-large-uncased-whole-word-masking-squad-0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deeplabv3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>densenet-121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>efficientdet-d0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>faster_rcnn_resnet50_coco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>inception-v4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mobilenet-ssd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mobilenet-v2-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>resnet-18-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>resnet-50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ssd-resnet34-1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>unet-camvid-onnx-0001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>yolo_v3_tiny</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>yolo_v4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Tables GPU'!$D$132:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.3810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6739999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9EB-4A58-93E1-4FB1749C4AB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11755,9 +12185,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -11786,7 +12216,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -11799,9 +12229,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11892,9 +12319,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -11923,7 +12350,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -11936,9 +12363,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12029,9 +12453,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12060,7 +12484,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12073,9 +12497,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12166,9 +12587,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12197,7 +12618,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12210,9 +12631,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12303,9 +12721,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12334,7 +12752,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12347,9 +12765,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12440,9 +12855,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12471,7 +12886,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12484,9 +12899,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12579,9 +12991,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12610,7 +13022,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12623,9 +13035,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12718,9 +13127,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12749,7 +13158,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12762,9 +13171,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12857,9 +13263,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -12888,7 +13294,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -12901,9 +13307,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12996,9 +13399,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13027,7 +13430,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13040,9 +13443,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13086,9 +13486,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13117,7 +13517,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13130,9 +13530,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13225,9 +13622,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13256,7 +13653,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13269,9 +13666,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13316,9 +13710,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13347,7 +13741,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13360,9 +13754,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13456,9 +13847,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13487,7 +13878,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13500,9 +13891,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13596,9 +13984,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13627,7 +14015,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13640,9 +14028,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13736,9 +14121,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13767,7 +14152,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13780,9 +14165,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13876,9 +14258,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -13907,7 +14289,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -13920,9 +14302,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14016,9 +14395,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>bert-base-cased</c:v>
                 </c:pt>
@@ -14047,7 +14426,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -14060,9 +14439,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>yolo_v3_tiny</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>yolo_v4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14124,6 +14500,142 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-ACE0-43A2-8CF5-34D2DB0417F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$G$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel® Flex-170</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>bert-base-cased</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bert-large-uncased-whole-word-masking-squad-0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deeplabv3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>densenet-121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>efficientdet-d0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>faster_rcnn_resnet50_coco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>inception-v4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mobilenet-ssd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mobilenet-v2-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>resnet-18-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>resnet-50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ssd-resnet34-1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>unet-camvid-onnx-0001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>yolo_v3_tiny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Tables GPU'!$F$132:$F$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.868415584415584E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7871044155844156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24086493506493509</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11236103896103895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5516436363636366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8436244155844155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5438722077922087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.261858181818182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6160623376623375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8797922077922083E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11330961038961039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8878774025974028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23609974025974026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2773-4945-8D13-D8C6DFC38C9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14433,7 +14945,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -14464,7 +14976,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -14570,7 +15082,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -14601,7 +15113,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -14707,7 +15219,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -14738,7 +15250,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -14844,7 +15356,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -14875,7 +15387,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -14981,7 +15493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15012,7 +15524,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15118,7 +15630,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15149,7 +15661,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15257,7 +15769,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15288,7 +15800,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15396,7 +15908,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15427,7 +15939,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15535,7 +16047,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15566,7 +16078,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15674,7 +16186,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15705,7 +16217,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15764,7 +16276,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15795,7 +16307,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15903,7 +16415,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -15934,7 +16446,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -15994,7 +16506,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16025,7 +16537,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -16134,7 +16646,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16165,7 +16677,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -16274,7 +16786,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16305,7 +16817,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -16414,7 +16926,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16445,7 +16957,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -16554,7 +17066,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16585,7 +17097,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -16694,7 +17206,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Performance Tables  CPU'!$A$3:$A$17</c:f>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -16725,7 +17237,7 @@
                   <c:v>mobilenet-v2-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>renset-18-pytorch</c:v>
+                  <c:v>resnet-18-pytorch</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>resnet-50</c:v>
@@ -16802,6 +17314,145 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-5C04-4A68-B423-734B5210C091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$G$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel® Flex-170</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Performance Tables GPU'!$A$3:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>bert-base-cased</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bert-large-uncased-whole-word-masking-squad-0001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deeplabv3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>densenet-121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>efficientdet-d0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>faster_rcnn_resnet50_coco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>inception-v4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mobilenet-ssd</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mobilenet-v2-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>resnet-18-pytorch</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>resnet-50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ssd-resnet34-1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>unet-camvid-onnx-0001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>yolo_v3_tiny</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>yolo_v4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Tables GPU'!$E$132:$E$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49644666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.880233333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.934506666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4419666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.912760000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.659846666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.47969333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.02718000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72.072800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88290666666666673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.45414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.22776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.029946666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D84-4420-8F62-E1BBF24D5ACC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21070,8 +21721,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The Intel® Distribution of OpenVINO™ toolkit helps accelerate deep learning inference across a variety of Intel® processors and accelerators. The benchmarks in this spreadsheet demonstrate high performance gains on several public neural networks on multiple Intel® CPUs, GPUs and VPUs covering a broad performance range. Use this data to help you decide which hardware is best for your applications and solutions, or to plan your AI workload on the Intel computing already included in your solutions.</a:t>
+            <a:t>The Intel® Distribution of OpenVINO™ toolkit helps accelerate deep learning inference across a variety of Intel® processors and accelerators. The benchmarks in this spreadsheet demonstrate high performance gains on several public neural networks on multiple Intel® CPUs, GPUs and VPUs covering a broad performance range. Use this data to help you decide which hardware is best for your applications and solutions, or to plan your AI workload on the Intel computing already included in your solutions. Batch size is determined by the benchmark application based on network</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> model parameters and the available hardware, (CPU core, GPU execution units and emory).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -21193,340 +21865,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5CE83D-527E-4289-9F58-75B6618BE9A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5410200"/>
-          <a:ext cx="11068050" cy="3848100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OpenVINO™ Model Server Benchmark </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OpenVINO™ Model Server is an open-source, production-grade inference platform that exposes a set of models via a convenient inference API over gRPC or HTTP/REST. It employs the inference engine libraries for from the Intel® Distribution of OpenVINO™ toolkit to extend workloads across Intel® hardware including CPU, GPU and others.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Measurement Methodology</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OpenVINO™ Model Server is measured in multiple-client-single-server configuration using two hardware platforms connected by ethernet network. The network bandwidth depends on the platforms as well as models under investigation and it is set to not be a bottleneck for workload intensity. This connection is dedicated only to the performance measurements. The benchmark setup is consists of four main parts:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OpenVINO™ Model Server</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is launched as a docker container on the server platform and it listens (and answers on) requests from clients. OpenVINO™ Model Server is run on the same machine as the OpenVINO™ toolkit benchmark application in corresponding benchmarking. Models served by OpenVINO™ Model Server are located in a local file system mounted into the docker container. The OpenVINO™ Model Server instance communicates with other components via ports over a dedicated docker network.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Clients</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> are run in separated physical machine referred to as client platform. Clients are implemented in Python3 programming language based on TensorFlow* API and they work as parallel processes. Each client waits for a response from OpenVINO™ Model Server before it will send a new next request. The role played by the clients is also verification of responses.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Load balancer</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> works on the client platform in a docker container. HAProxy is used for this purpose. Its main role is counting of requests forwarded from clients to OpenVINO™ Model Server, estimating its latency, and sharing this information by Prometheus service. The reason of locating the load balancer on the client site is to simulate real life scenario that includes impact of physical network on reported metrics.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Execution Controller</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is launched on the client platform. It is responsible for synchronization of the whole measurement process, downloading metrics from the load balancer, and presenting the final report of the execution.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Image Compression for Improved Throughput.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -22391,7 +22729,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22408,7 +22746,7 @@
   <dimension ref="A1:N289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -22432,10 +22770,10 @@
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
@@ -33518,7 +33856,7 @@
       <c r="L289" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YgNj4Da533TLu7XGjwZFPSl/ockYpYRQDyLKIvWvwxpgK8Y2WaAq/YUYF5biaNYw2qTSh78vZutuQtEBuYQDqA==" saltValue="TMrK2RXw+6cgZwc4jwWnsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zWKfsw3kv4IuQDxxhJ7HXiaM2aTBvZZr+7YA3KpRyN1prOPzSPyt4N2NLtVV4FLM6HAemn9i+A1QpSwaCzJCrQ==" saltValue="r3Kv+sNLNWmldW/5jc8yzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="obtUc9z1SKpT2QgXGuBnBLMmP2Ruyrh4vLLC3J0+e2BoEQOdS3LNnQ1C54Wqf3ghA5JEEmSNQX0NVuijjCKrgA==" saltValue="t0gF7AecxnRApM1ODdLL/w==" spinCount="100000" sqref="H1" name="Range1"/>
     <protectedRange algorithmName="SHA-512" hashValue="obtUc9z1SKpT2QgXGuBnBLMmP2Ruyrh4vLLC3J0+e2BoEQOdS3LNnQ1C54Wqf3ghA5JEEmSNQX0NVuijjCKrgA==" saltValue="t0gF7AecxnRApM1ODdLL/w==" spinCount="100000" sqref="M1" name="Range1_1_1_1"/>
@@ -33539,44 +33877,50 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F06CD1-752B-498F-9798-12B0324B9F85}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -33589,25 +33933,33 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F2" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="19" t="str">
-        <f>CONCATENATE($E2," ",B2)</f>
+      <c r="H2" s="19" t="str">
+        <f>CONCATENATE($G2," ",B2)</f>
         <v>Intel® Atom® X6425E INT8</v>
       </c>
-      <c r="G2" s="19" t="str">
-        <f>CONCATENATE($E2," ",C2)</f>
+      <c r="I2" s="19" t="str">
+        <f>CONCATENATE($G2," ",C2)</f>
         <v>Intel® Atom® X6425E FP32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -33620,17 +33972,25 @@
       <c r="D3" s="12">
         <v>79.760999999999996</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="I3" t="s">
+      <c r="E3" s="23" t="str">
+        <f t="shared" ref="E3:F17" si="0">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F3" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -33643,17 +34003,25 @@
       <c r="D4" s="12">
         <v>727.678</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="I4" t="s">
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -33662,11 +34030,19 @@
         <v>5.1959999999999997</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -33677,11 +34053,19 @@
       <c r="D6" s="12">
         <v>30.024000000000001</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -33694,11 +34078,19 @@
       <c r="D7" s="12">
         <v>59.064999999999998</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -33711,11 +34103,19 @@
       <c r="D8" s="12">
         <v>776.06899999999996</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -33728,11 +34128,19 @@
       <c r="D9" s="12">
         <v>78.055000000000007</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -33745,11 +34153,19 @@
       <c r="D10" s="12">
         <v>11.680999999999999</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -33760,13 +34176,21 @@
       <c r="D11" s="12">
         <v>7.0309999999999997</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12">
         <v>161.381</v>
@@ -33777,11 +34201,19 @@
       <c r="D12" s="12">
         <v>10.983000000000001</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -33794,11 +34226,19 @@
       <c r="D13" s="12">
         <v>21.686</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -33811,11 +34251,19 @@
       <c r="D14" s="12">
         <v>1053.008</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -33828,11 +34276,19 @@
       <c r="D15" s="12">
         <v>502.60899999999998</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -33845,11 +34301,19 @@
       <c r="D16" s="12">
         <v>15.769</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -33862,119 +34326,151 @@
       <c r="D17" s="12">
         <v>295.77</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -33987,19 +34483,21 @@
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="19" t="str">
-        <f>CONCATENATE($E30," ",B30)</f>
+      <c r="H30" s="19" t="str">
+        <f>CONCATENATE($G30," ",B30)</f>
         <v>Intel® Celeron 6305E INT8</v>
       </c>
-      <c r="G30" s="19" t="str">
-        <f>CONCATENATE($E30," ",C30)</f>
+      <c r="I30" s="19" t="str">
+        <f>CONCATENATE($G30," ",C30)</f>
         <v>Intel® Celeron 6305E FP32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>$A$3</f>
         <v>bert-base-cased</v>
@@ -34013,11 +34511,19 @@
       <c r="D31" s="12">
         <v>62.972999999999999</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F31" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>$A$4</f>
         <v>bert-large-uncased-whole-word-masking-squad-0001</v>
@@ -34031,11 +34537,19 @@
       <c r="D32" s="12">
         <v>494.536</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="23" t="str">
+        <f t="shared" ref="E32:F46" si="1">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f>$A$5</f>
         <v>deeplabv3</v>
@@ -34049,11 +34563,19 @@
       <c r="D33" s="12">
         <v>42.966000000000001</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f>$A$6</f>
         <v>densenet-121</v>
@@ -34067,11 +34589,19 @@
       <c r="D34" s="12">
         <v>20.791</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f>$A$7</f>
         <v>efficientdet-d0</v>
@@ -34085,11 +34615,19 @@
       <c r="D35" s="12">
         <v>54.017000000000003</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f>$A$8</f>
         <v>faster_rcnn_resnet50_coco</v>
@@ -34103,11 +34641,19 @@
       <c r="D36" s="12">
         <v>389.35599999999999</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f>$A$9</f>
         <v>inception-v4</v>
@@ -34121,11 +34667,19 @@
       <c r="D37" s="12">
         <v>46.262</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>$A$10</f>
         <v>mobilenet-ssd</v>
@@ -34139,11 +34693,19 @@
       <c r="D38" s="12">
         <v>7.8959999999999999</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f>$A$11</f>
         <v>mobilenet-v2-pytorch</v>
@@ -34157,14 +34719,22 @@
       <c r="D39" s="12">
         <v>4.92</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f>$A$12</f>
-        <v>renset-18-pytorch</v>
+        <v>resnet-18-pytorch</v>
       </c>
       <c r="B40" s="12">
         <v>194.69399999999999</v>
@@ -34175,11 +34745,19 @@
       <c r="D40" s="12">
         <v>6.6429999999999998</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F40" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f>$A$13</f>
         <v>resnet-50</v>
@@ -34193,11 +34771,19 @@
       <c r="D41" s="12">
         <v>14.641</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F41" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f>$A$14</f>
         <v>ssd-resnet34-1200</v>
@@ -34211,11 +34797,19 @@
       <c r="D42" s="12">
         <v>649.38099999999997</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F42" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f>$A$15</f>
         <v>unet-camvid-onnx-0001</v>
@@ -34229,11 +34823,19 @@
       <c r="D43" s="12">
         <v>368.89699999999999</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F43" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f>$A$16</f>
         <v>yolo_v3_tiny</v>
@@ -34247,11 +34849,19 @@
       <c r="D44" s="12">
         <v>10.872999999999999</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F44" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f>$A$17</f>
         <v>yolo_v4</v>
@@ -34265,155 +34875,193 @@
       <c r="D45" s="12">
         <v>212.79900000000001</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" ref="A46:A57" si="0">A18</f>
+        <f t="shared" ref="A46:A57" si="2">A18</f>
         <v>0</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -34426,19 +35074,21 @@
       <c r="D58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="19" t="str">
-        <f>CONCATENATE($E58," ",B58)</f>
+      <c r="H58" s="19" t="str">
+        <f>CONCATENATE($G58," ",B58)</f>
         <v>Intel® Core™ 1165G7 INT8</v>
       </c>
-      <c r="G58" s="19" t="str">
-        <f>CONCATENATE($E58," ",C58)</f>
+      <c r="I58" s="19" t="str">
+        <f>CONCATENATE($G58," ",C58)</f>
         <v>Intel® Core™ 1165G7 FP32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f>$A$3</f>
         <v>bert-base-cased</v>
@@ -34452,11 +35102,19 @@
       <c r="D59" s="12">
         <v>14.1</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F59" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f>$A$4</f>
         <v>bert-large-uncased-whole-word-masking-squad-0001</v>
@@ -34470,11 +35128,19 @@
       <c r="D60" s="12">
         <v>95.66</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="23" t="str">
+        <f t="shared" ref="E60:F74" si="3">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F60" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f>$A$5</f>
         <v>deeplabv3</v>
@@ -34488,11 +35154,19 @@
       <c r="D61" s="12">
         <v>9.1440000000000001</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F61" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f>$A$6</f>
         <v>densenet-121</v>
@@ -34506,11 +35180,19 @@
       <c r="D62" s="12">
         <v>6.5259999999999998</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F62" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f>$A$7</f>
         <v>efficientdet-d0</v>
@@ -34524,11 +35206,19 @@
       <c r="D63" s="12">
         <v>17.295000000000002</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F63" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f>$A$8</f>
         <v>faster_rcnn_resnet50_coco</v>
@@ -34542,11 +35232,19 @@
       <c r="D64" s="12">
         <v>70.793000000000006</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F64" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f>$A$9</f>
         <v>inception-v4</v>
@@ -34560,11 +35258,19 @@
       <c r="D65" s="12">
         <v>10.625</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F65" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f>$A$10</f>
         <v>mobilenet-ssd</v>
@@ -34578,11 +35284,19 @@
       <c r="D66" s="12">
         <v>2.548</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F66" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f>$A$11</f>
         <v>mobilenet-v2-pytorch</v>
@@ -34596,14 +35310,22 @@
       <c r="D67" s="12">
         <v>1.7210000000000001</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F67" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f>$A$12</f>
-        <v>renset-18-pytorch</v>
+        <v>resnet-18-pytorch</v>
       </c>
       <c r="B68" s="12">
         <v>1061.5909999999999</v>
@@ -34614,11 +35336,19 @@
       <c r="D68" s="12">
         <v>1.7929999999999999</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E68" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F68" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f>$A$13</f>
         <v>resnet-50</v>
@@ -34632,11 +35362,19 @@
       <c r="D69" s="12">
         <v>3.8959999999999999</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F69" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f>$A$14</f>
         <v>ssd-resnet34-1200</v>
@@ -34650,11 +35388,19 @@
       <c r="D70" s="12">
         <v>122.456</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F70" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f>$A$15</f>
         <v>unet-camvid-onnx-0001</v>
@@ -34668,11 +35414,19 @@
       <c r="D71" s="12">
         <v>61.6</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F71" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f>$A$16</f>
         <v>yolo_v3_tiny</v>
@@ -34686,11 +35440,19 @@
       <c r="D72" s="12">
         <v>2.5790000000000002</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F72" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f>$A$17</f>
         <v>yolo_v4</v>
@@ -34704,155 +35466,193 @@
       <c r="D73" s="12">
         <v>39.149000000000001</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F73" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <f t="shared" ref="A74:A85" si="1">A46</f>
+        <f t="shared" ref="A74:A85" si="4">A46</f>
         <v>0</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F74" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
@@ -34865,19 +35665,21 @@
       <c r="D86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="19" t="str">
-        <f>CONCATENATE($E86," ",B86)</f>
+      <c r="H86" s="19" t="str">
+        <f>CONCATENATE($G86," ",B86)</f>
         <v>Intel® Core™ i9-12900K INT8</v>
       </c>
-      <c r="G86" s="19" t="str">
-        <f>CONCATENATE($E86," ",C86)</f>
+      <c r="I86" s="19" t="str">
+        <f>CONCATENATE($G86," ",C86)</f>
         <v>Intel® Core™ i9-12900K FP32</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>$A$3</f>
         <v>bert-base-cased</v>
@@ -34891,11 +35693,19 @@
       <c r="D87" s="12">
         <v>22</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F87" s="23" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>$A$4</f>
         <v>bert-large-uncased-whole-word-masking-squad-0001</v>
@@ -34909,11 +35719,19 @@
       <c r="D88" s="12">
         <v>181.83</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="23" t="str">
+        <f t="shared" ref="E88:F102" si="5">"-"</f>
+        <v>-</v>
+      </c>
+      <c r="F88" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>$A$5</f>
         <v>deeplabv3</v>
@@ -34927,11 +35745,19 @@
       <c r="D89" s="12">
         <v>16.263000000000002</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F89" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>$A$6</f>
         <v>densenet-121</v>
@@ -34945,11 +35771,19 @@
       <c r="D90" s="12">
         <v>6.673</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F90" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>$A$7</f>
         <v>efficientdet-d0</v>
@@ -34963,11 +35797,19 @@
       <c r="D91" s="12">
         <v>21.402999999999999</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F91" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f>$A$8</f>
         <v>faster_rcnn_resnet50_coco</v>
@@ -34981,11 +35823,19 @@
       <c r="D92" s="12">
         <v>149.74</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F92" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f>$A$9</f>
         <v>inception-v4</v>
@@ -34999,11 +35849,19 @@
       <c r="D93" s="12">
         <v>19.713000000000001</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F93" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f>$A$10</f>
         <v>mobilenet-ssd</v>
@@ -35017,11 +35875,19 @@
       <c r="D94" s="12">
         <v>2.472</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F94" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f>$A$11</f>
         <v>mobilenet-v2-pytorch</v>
@@ -35035,14 +35901,22 @@
       <c r="D95" s="12">
         <v>1.389</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F95" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f>$A$12</f>
-        <v>renset-18-pytorch</v>
+        <v>resnet-18-pytorch</v>
       </c>
       <c r="B96" s="12">
         <v>491.33699999999999</v>
@@ -35053,11 +35927,19 @@
       <c r="D96" s="12">
         <v>2.2650000000000001</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E96" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F96" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f>$A$13</f>
         <v>resnet-50</v>
@@ -35071,11 +35953,19 @@
       <c r="D97" s="12">
         <v>5.2539999999999996</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E97" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F97" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f>$A$14</f>
         <v>ssd-resnet34-1200</v>
@@ -35089,11 +35979,19 @@
       <c r="D98" s="12">
         <v>241.78399999999999</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F98" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f>$A$15</f>
         <v>unet-camvid-onnx-0001</v>
@@ -35107,11 +36005,19 @@
       <c r="D99" s="12">
         <v>142.07499999999999</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E99" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F99" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f>$A$16</f>
         <v>yolo_v3_tiny</v>
@@ -35125,11 +36031,19 @@
       <c r="D100" s="12">
         <v>3.879</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F100" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f>$A$17</f>
         <v>yolo_v4</v>
@@ -35143,183 +36057,223 @@
       <c r="D101" s="12">
         <v>85.162999999999997</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F101" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <f t="shared" ref="A102:A113" si="2">A74</f>
+        <f t="shared" ref="A102:A113" si="6">A74</f>
         <v>0</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F102" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="str">
         <f>A86</f>
         <v>Model name:</v>
       </c>
       <c r="B114" s="14" t="str">
-        <f t="shared" ref="B114:D114" si="3">B86</f>
+        <f t="shared" ref="B114:D114" si="7">B86</f>
         <v>INT8</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INT8</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F114" s="19" t="str">
-        <f>CONCATENATE($E114," ",B114)</f>
+      <c r="H114" s="19" t="str">
+        <f>CONCATENATE($G114," ",B114)</f>
         <v>Intel® Data Center Flex 170 INT8</v>
       </c>
-      <c r="G114" s="19" t="str">
-        <f>CONCATENATE($E114," ",C114)</f>
+      <c r="I114" s="19" t="str">
+        <f>CONCATENATE($G114," ",C114)</f>
         <v>Intel® Data Center Flex 170 FP32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f>$A$3</f>
         <v>bert-base-cased</v>
@@ -35334,11 +36288,13 @@
       <c r="D115" s="12">
         <v>0.1</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f>$A$4</f>
         <v>bert-large-uncased-whole-word-masking-squad-0001</v>
@@ -35348,301 +36304,690 @@
         <v>2</v>
       </c>
       <c r="C116" s="12">
-        <f t="shared" ref="C116:C129" si="4">C115+1</f>
+        <f t="shared" ref="C116:C129" si="8">C115+1</f>
         <v>2.1</v>
       </c>
       <c r="D116" s="12">
         <f>D115+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f>$A$5</f>
         <v>deeplabv3</v>
       </c>
       <c r="B117" s="12">
-        <f t="shared" ref="B117:B129" si="5">B116+1</f>
+        <f t="shared" ref="B117:B129" si="9">B116+1</f>
         <v>3</v>
       </c>
       <c r="C117" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1</v>
       </c>
       <c r="D117" s="12">
-        <f t="shared" ref="D117:D129" si="6">D116+0.1</f>
+        <f t="shared" ref="D117:D129" si="10">D116+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f>$A$6</f>
         <v>densenet-121</v>
       </c>
       <c r="B118" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C118" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="D118" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f>$A$7</f>
         <v>efficientdet-d0</v>
       </c>
       <c r="B119" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C119" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="D119" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f>$A$8</f>
         <v>faster_rcnn_resnet50_coco</v>
       </c>
       <c r="B120" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C120" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1</v>
       </c>
       <c r="D120" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f>$A$9</f>
         <v>inception-v4</v>
       </c>
       <c r="B121" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C121" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1</v>
       </c>
       <c r="D121" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f>$A$10</f>
         <v>mobilenet-ssd</v>
       </c>
       <c r="B122" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C122" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.1</v>
       </c>
       <c r="D122" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f>$A$11</f>
         <v>mobilenet-v2-pytorch</v>
       </c>
       <c r="B123" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C123" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1</v>
       </c>
       <c r="D123" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f>$A$12</f>
-        <v>renset-18-pytorch</v>
+        <v>resnet-18-pytorch</v>
       </c>
       <c r="B124" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C124" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.1</v>
       </c>
       <c r="D124" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f>$A$13</f>
         <v>resnet-50</v>
       </c>
       <c r="B125" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="C125" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.1</v>
       </c>
       <c r="D125" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0999999999999999</v>
       </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f>$A$14</f>
         <v>ssd-resnet34-1200</v>
       </c>
       <c r="B126" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="C126" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.1</v>
       </c>
       <c r="D126" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f>$A$15</f>
         <v>unet-camvid-onnx-0001</v>
       </c>
       <c r="B127" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="C127" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.1</v>
       </c>
       <c r="D127" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.3</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f>$A$16</f>
         <v>yolo_v3_tiny</v>
       </c>
       <c r="B128" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="C128" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.1</v>
       </c>
       <c r="D128" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+    </row>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f>$A$17</f>
         <v>yolo_v4</v>
       </c>
       <c r="B129" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="C129" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.1</v>
       </c>
       <c r="D129" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" s="19" t="str">
+        <f>CONCATENATE($G131," ",B131)</f>
+        <v>Intel® Flex-170 INT8</v>
+      </c>
+      <c r="I131" s="19" t="str">
+        <f>CONCATENATE($G131," ",C131)</f>
+        <v>Intel® Flex-170 FP32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="str">
+        <f>$A$3</f>
+        <v>bert-base-cased</v>
+      </c>
+      <c r="B132" s="12">
+        <v>906.29700000000003</v>
+      </c>
+      <c r="C132" s="12">
+        <v>348.517</v>
+      </c>
+      <c r="D132" s="12">
+        <v>7.3810000000000002</v>
+      </c>
+      <c r="E132" s="12">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="F132" s="12">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="str">
+        <f>$A$4</f>
+        <v>bert-large-uncased-whole-word-masking-squad-0001</v>
+      </c>
+      <c r="B133" s="12">
+        <v>74.466999999999999</v>
+      </c>
+      <c r="C133" s="12">
+        <v>25.765999999999998</v>
+      </c>
+      <c r="D133" s="12">
+        <v>19.768000000000001</v>
+      </c>
+      <c r="E133" s="12">
+        <v>0.49644666666666665</v>
+      </c>
+      <c r="F133" s="12">
+        <v>3.868415584415584E-2</v>
+      </c>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="str">
+        <f>$A$5</f>
+        <v>deeplabv3</v>
+      </c>
+      <c r="B134" s="12">
+        <v>882.03499999999997</v>
+      </c>
+      <c r="C134" s="12">
+        <v>98.948999999999998</v>
+      </c>
+      <c r="D134" s="12">
+        <v>3.302</v>
+      </c>
+      <c r="E134" s="12">
+        <v>5.880233333333333</v>
+      </c>
+      <c r="F134" s="12">
+        <v>0.4582</v>
+      </c>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="str">
+        <f>$A$6</f>
+        <v>densenet-121</v>
+      </c>
+      <c r="B135" s="12">
+        <v>3440.1759999999999</v>
+      </c>
+      <c r="C135" s="12">
+        <v>1178.6780000000001</v>
+      </c>
+      <c r="D135" s="12">
+        <v>5.6029999999999998</v>
+      </c>
+      <c r="E135" s="12">
+        <v>22.934506666666667</v>
+      </c>
+      <c r="F135" s="12">
+        <v>1.7871044155844156</v>
+      </c>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="str">
+        <f>$A$7</f>
+        <v>efficientdet-d0</v>
+      </c>
+      <c r="B136" s="12">
+        <v>463.66500000000002</v>
+      </c>
+      <c r="C136" s="12">
+        <v>295.12799999999999</v>
+      </c>
+      <c r="D136" s="12">
+        <v>9.1370000000000005</v>
+      </c>
+      <c r="E136" s="12">
+        <v>3.0911</v>
+      </c>
+      <c r="F136" s="12">
+        <v>0.24086493506493509</v>
+      </c>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="str">
+        <f>$A$8</f>
+        <v>faster_rcnn_resnet50_coco</v>
+      </c>
+      <c r="B137" s="12">
+        <v>216.29499999999999</v>
+      </c>
+      <c r="C137" s="12">
+        <v>23.420999999999999</v>
+      </c>
+      <c r="D137" s="12">
+        <v>3.968</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1.4419666666666666</v>
+      </c>
+      <c r="F137" s="12">
+        <v>0.11236103896103895</v>
+      </c>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="str">
+        <f>$A$9</f>
+        <v>inception-v4</v>
+      </c>
+      <c r="B138" s="12">
+        <v>2986.9140000000002</v>
+      </c>
+      <c r="C138" s="12">
+        <v>298.60300000000001</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E138" s="12">
+        <v>19.912760000000002</v>
+      </c>
+      <c r="F138" s="12">
+        <v>1.5516436363636366</v>
+      </c>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="str">
+        <f>$A$10</f>
+        <v>mobilenet-ssd</v>
+      </c>
+      <c r="B139" s="12">
+        <v>3548.9769999999999</v>
+      </c>
+      <c r="C139" s="12">
+        <v>1412.675</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E139" s="12">
+        <v>23.659846666666667</v>
+      </c>
+      <c r="F139" s="12">
+        <v>1.8436244155844155</v>
+      </c>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="str">
+        <f>$A$11</f>
+        <v>mobilenet-v2-pytorch</v>
+      </c>
+      <c r="B140" s="12">
+        <v>18371.954000000002</v>
+      </c>
+      <c r="C140" s="12">
+        <v>4738.326</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E140" s="12">
+        <v>122.47969333333334</v>
+      </c>
+      <c r="F140" s="12">
+        <v>9.5438722077922087</v>
+      </c>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="str">
+        <f>$A$12</f>
+        <v>resnet-18-pytorch</v>
+      </c>
+      <c r="B141" s="12">
+        <v>27454.077000000001</v>
+      </c>
+      <c r="C141" s="12">
+        <v>2264.674</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="E141" s="12">
+        <v>183.02718000000002</v>
+      </c>
+      <c r="F141" s="12">
+        <v>14.261858181818182</v>
+      </c>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="str">
+        <f>$A$13</f>
+        <v>resnet-50</v>
+      </c>
+      <c r="B142" s="12">
+        <v>10810.92</v>
+      </c>
+      <c r="C142" s="12">
+        <v>1005.163</v>
+      </c>
+      <c r="D142" s="12">
+        <v>19.933</v>
+      </c>
+      <c r="E142" s="12">
+        <v>72.072800000000001</v>
+      </c>
+      <c r="F142" s="12">
+        <v>5.6160623376623375</v>
+      </c>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="str">
+        <f>$A$14</f>
+        <v>ssd-resnet34-1200</v>
+      </c>
+      <c r="B143" s="12">
+        <v>132.43600000000001</v>
+      </c>
+      <c r="C143" s="12">
+        <v>18.186</v>
+      </c>
+      <c r="D143" s="12">
+        <v>7.149</v>
+      </c>
+      <c r="E143" s="12">
+        <v>0.88290666666666673</v>
+      </c>
+      <c r="F143" s="12">
+        <v>6.8797922077922083E-2</v>
+      </c>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="str">
+        <f>$A$15</f>
+        <v>unet-camvid-onnx-0001</v>
+      </c>
+      <c r="B144" s="12">
+        <v>218.12100000000001</v>
+      </c>
+      <c r="C144" s="12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1.45414</v>
+      </c>
+      <c r="F144" s="12">
+        <v>0.11330961038961039</v>
+      </c>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="str">
+        <f>$A$16</f>
+        <v>yolo_v3_tiny</v>
+      </c>
+      <c r="B145" s="12">
+        <v>3634.1640000000002</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1209.671</v>
+      </c>
+      <c r="D145" s="12">
+        <v>6.9690000000000003</v>
+      </c>
+      <c r="E145" s="12">
+        <v>24.22776</v>
+      </c>
+      <c r="F145" s="12">
+        <v>1.8878774025974028</v>
+      </c>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="str">
+        <f>$A$17</f>
+        <v>yolo_v4</v>
+      </c>
+      <c r="B146" s="12">
+        <v>454.49200000000002</v>
+      </c>
+      <c r="C146" s="12">
+        <v>56.783000000000001</v>
+      </c>
+      <c r="D146" s="12">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="E146" s="12">
+        <v>3.029946666666667</v>
+      </c>
+      <c r="F146" s="12">
+        <v>0.23609974025974026</v>
+      </c>
+      <c r="G146" s="3"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B/uqxbfvjby476G1AyXv6Iu01avldL2w0e90i5vvsGUgvQfRZuwvzfd1B71lehv+WQJw2Gh+fdDWZFQquAS3tQ==" saltValue="OE1v2XH/zafPrEqD3Y4sgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBGfXWo4PoQc+Ti3l2H4PaQyWCsWkzSm1izsZS2Cajl24FEve/Tlb5pT2oMPvbkCexp/mNkTSxFHfcHWWobr0g==" saltValue="HYvwjbJ7RvBNGNllu2ENAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="obtUc9z1SKpT2QgXGuBnBLMmP2Ruyrh4vLLC3J0+e2BoEQOdS3LNnQ1C54Wqf3ghA5JEEmSNQX0NVuijjCKrgA==" saltValue="t0gF7AecxnRApM1ODdLL/w==" spinCount="100000" sqref="I1" name="Range1_1_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="obtUc9z1SKpT2QgXGuBnBLMmP2Ruyrh4vLLC3J0+e2BoEQOdS3LNnQ1C54Wqf3ghA5JEEmSNQX0NVuijjCKrgA==" saltValue="t0gF7AecxnRApM1ODdLL/w==" spinCount="100000" sqref="K1" name="Range1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{7214A24D-FD7D-40D7-B5D9-2F9271EB6725}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{7214A24D-FD7D-40D7-B5D9-2F9271EB6725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -35670,10 +37015,10 @@
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
@@ -37167,7 +38512,7 @@
       <c r="F113" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="atKVfFBOb8qcmckN/zVY7WTAccxf7O1BYZZWldjpGILKQ1jw+HQWVfCJEm9yo4c0+t+vj2xEcCNNpC74IT3rbA==" saltValue="DV7fN7H+0UuHlCsShLHy2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MR1w+TEoSVKAAd7u17yUbblkGHVMRJC+/ChIuPXc1sVlHukfjt4O+q7Hi3dO0BE7FZ7D0vzhTC48A33P6lAxPQ==" saltValue="GC8VfwO3w+mTBaqxGs4lFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="obtUc9z1SKpT2QgXGuBnBLMmP2Ruyrh4vLLC3J0+e2BoEQOdS3LNnQ1C54Wqf3ghA5JEEmSNQX0NVuijjCKrgA==" saltValue="t0gF7AecxnRApM1ODdLL/w==" spinCount="100000" sqref="H1" name="Range1_1_1"/>
   </protectedRanges>
@@ -37275,9 +38620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD8AB0E-149E-4245-9DE6-116AC892C5D3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37492,7 +38835,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37562,9 +38905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B280D70A-6E6C-4E20-A4EA-9EC450627363}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
